--- a/01_input/threshold.xlsx
+++ b/01_input/threshold.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuanGit\trbd\01_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sarah_crookshanks_gov_bc_ca/Documents/RFiles/Projects/RainQC/tbrg-qc-main/01_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F834BB-5CE2-4A1A-9F7F-9B7A5763FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{39F834BB-5CE2-4A1A-9F7F-9B7A5763FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5599F93-5C29-4C0E-9205-3F5615F40E0C}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1305" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6C7DC0C7-6D25-4146-8C8B-7ED8A5638158}"/>
+    <workbookView xWindow="-46440" yWindow="2190" windowWidth="17025" windowHeight="11565" activeTab="2" xr2:uid="{6C7DC0C7-6D25-4146-8C8B-7ED8A5638158}"/>
   </bookViews>
   <sheets>
     <sheet name="extreme" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Test</t>
   </si>
@@ -119,142 +119,103 @@
     <t>examineend</t>
   </si>
   <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>m_start</t>
+  </si>
+  <si>
+    <t>m_end</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd h:mm:ss</t>
+  </si>
+  <si>
+    <t>Each row must filled in with both m_start and m_end</t>
+  </si>
+  <si>
+    <t>In excel, they are text in excel format</t>
+  </si>
+  <si>
+    <t>Should look like yyyy-mm-dd h:mm:ss</t>
+  </si>
+  <si>
+    <t>Do not miss the space in between, do not omit the time after the date</t>
+  </si>
+  <si>
+    <t>If this location_datatype has no missing data, do not write the row (do not leave empty m_start and empty m_end)</t>
+  </si>
+  <si>
+    <t>examineYear</t>
+  </si>
+  <si>
+    <t>Each row, the start and end should be both filled</t>
+  </si>
+  <si>
+    <t>The examine start and end datetime uses the h:mm:ss (as opposed to the missing datetime)</t>
+  </si>
+  <si>
+    <t>The missing start and end datetime rounds to the end of the day (as opposed to the examine datetime)</t>
+  </si>
+  <si>
+    <t>The missing start and end datetime should be within the examine start and end datetime range</t>
+  </si>
+  <si>
+    <t>Column Data do not need to be unique values. "Burn_HoBo" or "Cabin_Campbell"</t>
+  </si>
+  <si>
+    <t>"Data" col must be unique values. "Data" col must be Location_datatype. "Location" should be the same as location folder's name, datatype should be exactly the same as the data folder's name</t>
+  </si>
+  <si>
+    <t>2022-05-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-31 00:00:00</t>
+  </si>
+  <si>
     <t>Burn_Campbell</t>
   </si>
   <si>
+    <t>Burn_HoBo</t>
+  </si>
+  <si>
     <t>Cabin_Campbell</t>
   </si>
   <si>
+    <t>Cabin_HoBo</t>
+  </si>
+  <si>
     <t>Seed_Campbell</t>
   </si>
   <si>
-    <t>Burn_HoBo</t>
-  </si>
-  <si>
-    <t>Cabin_HoBo</t>
-  </si>
-  <si>
     <t>Seed_HoBo</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>m_start</t>
-  </si>
-  <si>
-    <t>m_end</t>
-  </si>
-  <si>
-    <t>Column Data do not need to be unique values.</t>
-  </si>
-  <si>
-    <t>"Data" col must be unique values</t>
-  </si>
-  <si>
-    <t>yyyy-mm-dd h:mm:ss</t>
-  </si>
-  <si>
-    <t>Each row must filled in with both m_start and m_end</t>
-  </si>
-  <si>
-    <t>2022-04-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-31 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-05-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-05-02 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-05-03 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-05 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-06 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-07 00:00:00</t>
-  </si>
-  <si>
-    <t>In excel, they are text in excel format</t>
-  </si>
-  <si>
-    <t>Should look like yyyy-mm-dd h:mm:ss</t>
-  </si>
-  <si>
-    <t>Do not miss the space in between, do not omit the time after the date</t>
-  </si>
-  <si>
-    <t>2022-06-01 0:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-02 0:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-01 0:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-15 0:00:00</t>
-  </si>
-  <si>
-    <t>2022-08-06 15:00:00</t>
-  </si>
-  <si>
-    <t>2022-08-06 17:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-03 0:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-20 0:00:00</t>
-  </si>
-  <si>
-    <t>2022-06-15 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-09-15 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-08-06 15:00:01</t>
-  </si>
-  <si>
-    <t>2022-08-06 17:00:01</t>
-  </si>
-  <si>
-    <t>2022-08-06 15:00:02</t>
-  </si>
-  <si>
-    <t>2022-08-06 17:00:02</t>
-  </si>
-  <si>
-    <t>If this location_datatype has no missing data, do not write the row (do not leave empty m_start and empty m_end)</t>
-  </si>
-  <si>
-    <t>examineYear</t>
-  </si>
-  <si>
-    <t>Seed_Campbell_nice</t>
-  </si>
-  <si>
-    <t>Seed_Campbell_poor</t>
-  </si>
-  <si>
-    <t>Each row, the start and end should be both filled</t>
-  </si>
-  <si>
-    <t>"Data" col must be Location_datatype. "Location" should be the same as location folder's name, datatype should be exactly the same as the data folder's name</t>
+    <t>2022-04-01 0:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-11 16:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-30 13:00:00</t>
+  </si>
+  <si>
+    <t>2022-11-24 11:59:00</t>
+  </si>
+  <si>
+    <t>2022-06-03 0:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-12 13:44:00</t>
+  </si>
+  <si>
+    <t>2022-06-27 11:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-12 13:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-07 13:59:00</t>
   </si>
 </sst>
 </file>
@@ -329,6 +290,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,7 +596,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +634,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>2022</v>
@@ -735,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB085D-02AF-4155-A247-E96ECF64C1FD}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,10 +757,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -811,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F89E8E-245F-4DC3-A5CF-B56017A2F017}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +790,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
@@ -839,86 +804,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -930,119 +895,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB95AF18-0F59-4EE6-8AF6-E4FDEBECB0F9}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="3" width="23.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1185,18 +1103,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1218,18 +1136,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41CB7DBE-70C9-42BB-8E6E-F709F733A4E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA19AD5-917A-4BF1-9AAE-89B41B35AA65}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41CB7DBE-70C9-42BB-8E6E-F709F733A4E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>